--- a/biology/Botanique/Involucre/Involucre.xlsx
+++ b/biology/Botanique/Involucre/Involucre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En botanique, un involucre est une collerette d'écailles ou de bractées libres et compactes ou soudées ensemble au niveau de la base d'une inflorescence, notamment chez les apiacées (ombellifères), ou les astéracées (composées), voire d'une fleur isolée.
 Un involucelle est un petit involucre à bractéoles située à la base des rayons de l'ombellule.
